--- a/excel/finished/焦化45/CK45-干熄焦-CDQ除尘报表（日）.xlsx
+++ b/excel/finished/焦化45/CK45-干熄焦-CDQ除尘报表（日）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="19935" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="4.CDQ除尘" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>SGSSG-BSMCSA35-G005-01A</t>
+    <t>SGSSG-BSMCSA0009-G006-05A</t>
   </si>
   <si>
     <t xml:space="preserve">     参数
@@ -742,66 +742,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>交班：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>接班：</t>
-    </r>
+    <t xml:space="preserve"> 交班：                     接班：</t>
   </si>
   <si>
     <r>
@@ -936,14 +877,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1015,17 +956,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color indexed="65"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1037,37 +986,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="20"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1077,12 +1019,36 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="4"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -1097,26 +1063,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color indexed="2"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1125,41 +1075,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1184,192 +1118,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor theme="9" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor theme="8" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor theme="9" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor theme="9" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor theme="6" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor theme="6" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor theme="8" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor theme="6" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor theme="8" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor theme="5" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor theme="5" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor theme="4" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor theme="4" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor theme="7" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor theme="7" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor theme="5" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="7" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="6"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1385,7 +1319,7 @@
         <color theme="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
         <color theme="1"/>
@@ -1398,7 +1332,7 @@
       </left>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
         <color theme="1"/>
@@ -1410,10 +1344,10 @@
         <color theme="1"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
         <color theme="1"/>
@@ -1422,13 +1356,13 @@
     </border>
     <border diagonalDown="1">
       <left style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
         <color theme="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom/>
       <diagonal style="medium">
@@ -1441,7 +1375,7 @@
         <color theme="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
         <color theme="1"/>
@@ -1452,7 +1386,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
         <color theme="1"/>
@@ -1467,21 +1401,21 @@
         <color theme="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalDown="1">
       <left style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
         <color theme="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal style="medium">
         <color theme="1"/>
@@ -1498,7 +1432,7 @@
         <color theme="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1511,19 +1445,19 @@
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
         <color theme="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
         <color theme="1"/>
@@ -1532,7 +1466,7 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
         <color theme="1"/>
@@ -1575,7 +1509,7 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
         <color theme="1"/>
@@ -1584,20 +1518,20 @@
         <color theme="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1605,10 +1539,10 @@
       <left/>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1618,23 +1552,10 @@
         <color theme="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1644,38 +1565,34 @@
       </left>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="thin">
+        <color theme="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1684,95 +1601,98 @@
         <color theme="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right style="medium">
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="1"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1794,63 +1714,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1859,171 +1722,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="28">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="29">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="30">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="28">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="25">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2085,21 +1933,33 @@
     <xf numFmtId="20" fontId="9" fillId="0" borderId="12" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2133,53 +1993,53 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="26" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="22" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="27" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="22" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="23" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="26" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="27" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="22" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="28" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="23" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="21" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -2456,14 +2316,16 @@
   <dimension ref="B1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.7" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.1" style="1" customWidth="1"/>
-    <col min="3" max="23" width="11.1" style="1" customWidth="1"/>
+    <col min="3" max="18" width="11.1" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.1" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="23" width="11.1" style="1" customWidth="1"/>
     <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2512,13 +2374,13 @@
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
     </row>
     <row r="3" ht="29.55" customHeight="1" spans="2:23">
       <c r="B3" s="10" t="s">
@@ -2552,25 +2414,25 @@
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
       <c r="P3" s="12"/>
-      <c r="Q3" s="38" t="s">
+      <c r="Q3" s="41" t="s">
         <v>12</v>
       </c>
       <c r="R3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="39" t="s">
+      <c r="S3" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="40" t="s">
+      <c r="T3" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="40" t="s">
+      <c r="U3" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="40" t="s">
+      <c r="V3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="41"/>
+      <c r="W3" s="44"/>
     </row>
     <row r="4" ht="57" spans="2:23">
       <c r="B4" s="16"/>
@@ -2612,13 +2474,13 @@
       </c>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43" t="s">
+      <c r="S4" s="45"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="W4" s="44" t="s">
+      <c r="W4" s="46" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2714,7 +2576,7 @@
         <f>IF(_speed_day_hour!E2="","",_speed_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="H6" s="21" t="str">
+      <c r="H6" s="22" t="str">
         <f>IF(_speed_day_hour!F2="","",_speed_day_hour!F2)</f>
         <v/>
       </c>
@@ -2722,7 +2584,7 @@
         <f>IF(_speed_day_hour!G2="","",_speed_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="J6" s="31" t="str">
+      <c r="J6" s="35" t="str">
         <f>IF(_speed_day_hour!H2="","",_speed_day_hour!H2)</f>
         <v/>
       </c>
@@ -2734,47 +2596,47 @@
         <f>IF(_speed_day_hour!J2="","",_speed_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="M6" s="31" t="str">
+      <c r="M6" s="35" t="str">
         <f>IF(_speed_day_hour!K2="","",_speed_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="N6" s="31" t="str">
+      <c r="N6" s="35" t="str">
         <f>IF(_speed_day_hour!L2="","",_speed_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="O6" s="31" t="str">
+      <c r="O6" s="35" t="str">
         <f>IF(_speed_day_hour!M2="","",_speed_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="P6" s="31" t="str">
+      <c r="P6" s="35" t="str">
         <f>IF(_speed_day_hour!N2="","",_speed_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="Q6" s="31" t="str">
+      <c r="Q6" s="21" t="str">
         <f>IF(_speed_day_hour!O2="","",_speed_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R6" s="45" t="str">
+      <c r="R6" s="47" t="str">
         <f>IF(_speed_day_hour!P2="","",_speed_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S6" s="46" t="str">
+      <c r="S6" s="48" t="str">
         <f>IF(_speed_day_hour!Q2="","",_speed_day_hour!Q2)</f>
         <v/>
       </c>
-      <c r="T6" s="46" t="str">
+      <c r="T6" s="49" t="str">
         <f>IF(_speed_day_hour!R2="","",_speed_day_hour!R2)</f>
         <v/>
       </c>
-      <c r="U6" s="46" t="str">
+      <c r="U6" s="48" t="str">
         <f>IF(_speed_day_hour!S2="","",_speed_day_hour!S2)</f>
         <v/>
       </c>
-      <c r="V6" s="46" t="str">
+      <c r="V6" s="48" t="str">
         <f>IF(_speed_day_hour!T2="","",_speed_day_hour!T2)</f>
         <v/>
       </c>
-      <c r="W6" s="47" t="str">
+      <c r="W6" s="50" t="str">
         <f>IF(_speed_day_hour!U2="","",_speed_day_hour!U2)</f>
         <v/>
       </c>
@@ -2803,7 +2665,7 @@
         <f>IF(_speed_day_hour!E3="","",_speed_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="H7" s="21" t="str">
+      <c r="H7" s="22" t="str">
         <f>IF(_speed_day_hour!F3="","",_speed_day_hour!F3)</f>
         <v/>
       </c>
@@ -2811,7 +2673,7 @@
         <f>IF(_speed_day_hour!G3="","",_speed_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="J7" s="31" t="str">
+      <c r="J7" s="35" t="str">
         <f>IF(_speed_day_hour!H3="","",_speed_day_hour!H3)</f>
         <v/>
       </c>
@@ -2823,47 +2685,47 @@
         <f>IF(_speed_day_hour!J3="","",_speed_day_hour!J3)</f>
         <v/>
       </c>
-      <c r="M7" s="31" t="str">
+      <c r="M7" s="35" t="str">
         <f>IF(_speed_day_hour!K3="","",_speed_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="N7" s="31" t="str">
+      <c r="N7" s="35" t="str">
         <f>IF(_speed_day_hour!L3="","",_speed_day_hour!L3)</f>
         <v/>
       </c>
-      <c r="O7" s="31" t="str">
+      <c r="O7" s="35" t="str">
         <f>IF(_speed_day_hour!M3="","",_speed_day_hour!M3)</f>
         <v/>
       </c>
-      <c r="P7" s="31" t="str">
+      <c r="P7" s="35" t="str">
         <f>IF(_speed_day_hour!N3="","",_speed_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="Q7" s="31" t="str">
+      <c r="Q7" s="21" t="str">
         <f>IF(_speed_day_hour!O3="","",_speed_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R7" s="45" t="str">
+      <c r="R7" s="47" t="str">
         <f>IF(_speed_day_hour!P3="","",_speed_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S7" s="46" t="str">
+      <c r="S7" s="48" t="str">
         <f>IF(_speed_day_hour!Q3="","",_speed_day_hour!Q3)</f>
         <v/>
       </c>
-      <c r="T7" s="46" t="str">
+      <c r="T7" s="49" t="str">
         <f>IF(_speed_day_hour!R3="","",_speed_day_hour!R3)</f>
         <v/>
       </c>
-      <c r="U7" s="46" t="str">
+      <c r="U7" s="48" t="str">
         <f>IF(_speed_day_hour!S3="","",_speed_day_hour!S3)</f>
         <v/>
       </c>
-      <c r="V7" s="46" t="str">
+      <c r="V7" s="48" t="str">
         <f>IF(_speed_day_hour!T3="","",_speed_day_hour!T3)</f>
         <v/>
       </c>
-      <c r="W7" s="47" t="str">
+      <c r="W7" s="50" t="str">
         <f>IF(_speed_day_hour!U3="","",_speed_day_hour!U3)</f>
         <v/>
       </c>
@@ -2892,7 +2754,7 @@
         <f>IF(_speed_day_hour!E4="","",_speed_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="H8" s="21" t="str">
+      <c r="H8" s="22" t="str">
         <f>IF(_speed_day_hour!F4="","",_speed_day_hour!F4)</f>
         <v/>
       </c>
@@ -2900,7 +2762,7 @@
         <f>IF(_speed_day_hour!G4="","",_speed_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="J8" s="31" t="str">
+      <c r="J8" s="35" t="str">
         <f>IF(_speed_day_hour!H4="","",_speed_day_hour!H4)</f>
         <v/>
       </c>
@@ -2912,47 +2774,47 @@
         <f>IF(_speed_day_hour!J4="","",_speed_day_hour!J4)</f>
         <v/>
       </c>
-      <c r="M8" s="31" t="str">
+      <c r="M8" s="35" t="str">
         <f>IF(_speed_day_hour!K4="","",_speed_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="N8" s="31" t="str">
+      <c r="N8" s="35" t="str">
         <f>IF(_speed_day_hour!L4="","",_speed_day_hour!L4)</f>
         <v/>
       </c>
-      <c r="O8" s="31" t="str">
+      <c r="O8" s="35" t="str">
         <f>IF(_speed_day_hour!M4="","",_speed_day_hour!M4)</f>
         <v/>
       </c>
-      <c r="P8" s="31" t="str">
+      <c r="P8" s="35" t="str">
         <f>IF(_speed_day_hour!N4="","",_speed_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="Q8" s="31" t="str">
+      <c r="Q8" s="21" t="str">
         <f>IF(_speed_day_hour!O4="","",_speed_day_hour!O4)</f>
         <v/>
       </c>
-      <c r="R8" s="48" t="str">
+      <c r="R8" s="51" t="str">
         <f>IF(_speed_day_hour!P4="","",_speed_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S8" s="46" t="str">
+      <c r="S8" s="48" t="str">
         <f>IF(_speed_day_hour!Q4="","",_speed_day_hour!Q4)</f>
         <v/>
       </c>
-      <c r="T8" s="46" t="str">
+      <c r="T8" s="49" t="str">
         <f>IF(_speed_day_hour!R4="","",_speed_day_hour!R4)</f>
         <v/>
       </c>
-      <c r="U8" s="46" t="str">
+      <c r="U8" s="48" t="str">
         <f>IF(_speed_day_hour!S4="","",_speed_day_hour!S4)</f>
         <v/>
       </c>
-      <c r="V8" s="46" t="str">
+      <c r="V8" s="48" t="str">
         <f>IF(_speed_day_hour!T4="","",_speed_day_hour!T4)</f>
         <v/>
       </c>
-      <c r="W8" s="47" t="str">
+      <c r="W8" s="50" t="str">
         <f>IF(_speed_day_hour!U4="","",_speed_day_hour!U4)</f>
         <v/>
       </c>
@@ -2981,7 +2843,7 @@
         <f>IF(_speed_day_hour!E5="","",_speed_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="H9" s="21" t="str">
+      <c r="H9" s="22" t="str">
         <f>IF(_speed_day_hour!F5="","",_speed_day_hour!F5)</f>
         <v/>
       </c>
@@ -2989,7 +2851,7 @@
         <f>IF(_speed_day_hour!G5="","",_speed_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="J9" s="31" t="str">
+      <c r="J9" s="35" t="str">
         <f>IF(_speed_day_hour!H5="","",_speed_day_hour!H5)</f>
         <v/>
       </c>
@@ -3001,47 +2863,47 @@
         <f>IF(_speed_day_hour!J5="","",_speed_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="M9" s="31" t="str">
+      <c r="M9" s="35" t="str">
         <f>IF(_speed_day_hour!K5="","",_speed_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="N9" s="31" t="str">
+      <c r="N9" s="35" t="str">
         <f>IF(_speed_day_hour!L5="","",_speed_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="O9" s="31" t="str">
+      <c r="O9" s="35" t="str">
         <f>IF(_speed_day_hour!M5="","",_speed_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="P9" s="31" t="str">
+      <c r="P9" s="35" t="str">
         <f>IF(_speed_day_hour!N5="","",_speed_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="Q9" s="31" t="str">
+      <c r="Q9" s="21" t="str">
         <f>IF(_speed_day_hour!O5="","",_speed_day_hour!O5)</f>
         <v/>
       </c>
-      <c r="R9" s="48" t="str">
+      <c r="R9" s="51" t="str">
         <f>IF(_speed_day_hour!P5="","",_speed_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S9" s="46" t="str">
+      <c r="S9" s="48" t="str">
         <f>IF(_speed_day_hour!Q5="","",_speed_day_hour!Q5)</f>
         <v/>
       </c>
-      <c r="T9" s="46" t="str">
+      <c r="T9" s="49" t="str">
         <f>IF(_speed_day_hour!R5="","",_speed_day_hour!R5)</f>
         <v/>
       </c>
-      <c r="U9" s="46" t="str">
+      <c r="U9" s="48" t="str">
         <f>IF(_speed_day_hour!S5="","",_speed_day_hour!S5)</f>
         <v/>
       </c>
-      <c r="V9" s="46" t="str">
+      <c r="V9" s="48" t="str">
         <f>IF(_speed_day_hour!T5="","",_speed_day_hour!T5)</f>
         <v/>
       </c>
-      <c r="W9" s="47" t="str">
+      <c r="W9" s="50" t="str">
         <f>IF(_speed_day_hour!U5="","",_speed_day_hour!U5)</f>
         <v/>
       </c>
@@ -3070,7 +2932,7 @@
         <f>IF(_speed_day_hour!E6="","",_speed_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="H10" s="21" t="str">
+      <c r="H10" s="22" t="str">
         <f>IF(_speed_day_hour!F6="","",_speed_day_hour!F6)</f>
         <v/>
       </c>
@@ -3078,7 +2940,7 @@
         <f>IF(_speed_day_hour!G6="","",_speed_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="J10" s="31" t="str">
+      <c r="J10" s="35" t="str">
         <f>IF(_speed_day_hour!H6="","",_speed_day_hour!H6)</f>
         <v/>
       </c>
@@ -3090,47 +2952,47 @@
         <f>IF(_speed_day_hour!J6="","",_speed_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="M10" s="31" t="str">
+      <c r="M10" s="35" t="str">
         <f>IF(_speed_day_hour!K6="","",_speed_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="N10" s="31" t="str">
+      <c r="N10" s="35" t="str">
         <f>IF(_speed_day_hour!L6="","",_speed_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="O10" s="31" t="str">
+      <c r="O10" s="35" t="str">
         <f>IF(_speed_day_hour!M6="","",_speed_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="P10" s="31" t="str">
+      <c r="P10" s="35" t="str">
         <f>IF(_speed_day_hour!N6="","",_speed_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="Q10" s="31" t="str">
+      <c r="Q10" s="21" t="str">
         <f>IF(_speed_day_hour!O6="","",_speed_day_hour!O6)</f>
         <v/>
       </c>
-      <c r="R10" s="48" t="str">
+      <c r="R10" s="51" t="str">
         <f>IF(_speed_day_hour!P6="","",_speed_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S10" s="46" t="str">
+      <c r="S10" s="48" t="str">
         <f>IF(_speed_day_hour!Q6="","",_speed_day_hour!Q6)</f>
         <v/>
       </c>
-      <c r="T10" s="46" t="str">
+      <c r="T10" s="49" t="str">
         <f>IF(_speed_day_hour!R6="","",_speed_day_hour!R6)</f>
         <v/>
       </c>
-      <c r="U10" s="46" t="str">
+      <c r="U10" s="48" t="str">
         <f>IF(_speed_day_hour!S6="","",_speed_day_hour!S6)</f>
         <v/>
       </c>
-      <c r="V10" s="46" t="str">
+      <c r="V10" s="48" t="str">
         <f>IF(_speed_day_hour!T6="","",_speed_day_hour!T6)</f>
         <v/>
       </c>
-      <c r="W10" s="47" t="str">
+      <c r="W10" s="50" t="str">
         <f>IF(_speed_day_hour!U6="","",_speed_day_hour!U6)</f>
         <v/>
       </c>
@@ -3159,7 +3021,7 @@
         <f>IF(_speed_day_hour!E7="","",_speed_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="H11" s="21" t="str">
+      <c r="H11" s="22" t="str">
         <f>IF(_speed_day_hour!F7="","",_speed_day_hour!F7)</f>
         <v/>
       </c>
@@ -3167,7 +3029,7 @@
         <f>IF(_speed_day_hour!G7="","",_speed_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="J11" s="31" t="str">
+      <c r="J11" s="35" t="str">
         <f>IF(_speed_day_hour!H7="","",_speed_day_hour!H7)</f>
         <v/>
       </c>
@@ -3179,47 +3041,47 @@
         <f>IF(_speed_day_hour!J7="","",_speed_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="M11" s="31" t="str">
+      <c r="M11" s="35" t="str">
         <f>IF(_speed_day_hour!K7="","",_speed_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="N11" s="31" t="str">
+      <c r="N11" s="35" t="str">
         <f>IF(_speed_day_hour!L7="","",_speed_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="O11" s="31" t="str">
+      <c r="O11" s="35" t="str">
         <f>IF(_speed_day_hour!M7="","",_speed_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="P11" s="31" t="str">
+      <c r="P11" s="35" t="str">
         <f>IF(_speed_day_hour!N7="","",_speed_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="Q11" s="31" t="str">
+      <c r="Q11" s="21" t="str">
         <f>IF(_speed_day_hour!O7="","",_speed_day_hour!O7)</f>
         <v/>
       </c>
-      <c r="R11" s="48" t="str">
+      <c r="R11" s="51" t="str">
         <f>IF(_speed_day_hour!P7="","",_speed_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S11" s="46" t="str">
+      <c r="S11" s="48" t="str">
         <f>IF(_speed_day_hour!Q7="","",_speed_day_hour!Q7)</f>
         <v/>
       </c>
-      <c r="T11" s="46" t="str">
+      <c r="T11" s="49" t="str">
         <f>IF(_speed_day_hour!R7="","",_speed_day_hour!R7)</f>
         <v/>
       </c>
-      <c r="U11" s="46" t="str">
+      <c r="U11" s="48" t="str">
         <f>IF(_speed_day_hour!S7="","",_speed_day_hour!S7)</f>
         <v/>
       </c>
-      <c r="V11" s="46" t="str">
+      <c r="V11" s="48" t="str">
         <f>IF(_speed_day_hour!T7="","",_speed_day_hour!T7)</f>
         <v/>
       </c>
-      <c r="W11" s="47" t="str">
+      <c r="W11" s="50" t="str">
         <f>IF(_speed_day_hour!U7="","",_speed_day_hour!U7)</f>
         <v/>
       </c>
@@ -3248,7 +3110,7 @@
         <f>IF(_speed_day_hour!E8="","",_speed_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="H12" s="21" t="str">
+      <c r="H12" s="22" t="str">
         <f>IF(_speed_day_hour!F8="","",_speed_day_hour!F8)</f>
         <v/>
       </c>
@@ -3256,7 +3118,7 @@
         <f>IF(_speed_day_hour!G8="","",_speed_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="J12" s="31" t="str">
+      <c r="J12" s="35" t="str">
         <f>IF(_speed_day_hour!H8="","",_speed_day_hour!H8)</f>
         <v/>
       </c>
@@ -3268,47 +3130,47 @@
         <f>IF(_speed_day_hour!J8="","",_speed_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="M12" s="31" t="str">
+      <c r="M12" s="35" t="str">
         <f>IF(_speed_day_hour!K8="","",_speed_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="N12" s="31" t="str">
+      <c r="N12" s="35" t="str">
         <f>IF(_speed_day_hour!L8="","",_speed_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="O12" s="31" t="str">
+      <c r="O12" s="35" t="str">
         <f>IF(_speed_day_hour!M8="","",_speed_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="P12" s="31" t="str">
+      <c r="P12" s="35" t="str">
         <f>IF(_speed_day_hour!N8="","",_speed_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="Q12" s="31" t="str">
+      <c r="Q12" s="21" t="str">
         <f>IF(_speed_day_hour!O8="","",_speed_day_hour!O8)</f>
         <v/>
       </c>
-      <c r="R12" s="48" t="str">
+      <c r="R12" s="51" t="str">
         <f>IF(_speed_day_hour!P8="","",_speed_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S12" s="46" t="str">
+      <c r="S12" s="48" t="str">
         <f>IF(_speed_day_hour!Q8="","",_speed_day_hour!Q8)</f>
         <v/>
       </c>
-      <c r="T12" s="46" t="str">
+      <c r="T12" s="49" t="str">
         <f>IF(_speed_day_hour!R8="","",_speed_day_hour!R8)</f>
         <v/>
       </c>
-      <c r="U12" s="46" t="str">
+      <c r="U12" s="48" t="str">
         <f>IF(_speed_day_hour!S8="","",_speed_day_hour!S8)</f>
         <v/>
       </c>
-      <c r="V12" s="46" t="str">
+      <c r="V12" s="48" t="str">
         <f>IF(_speed_day_hour!T8="","",_speed_day_hour!T8)</f>
         <v/>
       </c>
-      <c r="W12" s="47" t="str">
+      <c r="W12" s="50" t="str">
         <f>IF(_speed_day_hour!U8="","",_speed_day_hour!U8)</f>
         <v/>
       </c>
@@ -3337,7 +3199,7 @@
         <f>IF(_speed_day_hour!E9="","",_speed_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="H13" s="21" t="str">
+      <c r="H13" s="22" t="str">
         <f>IF(_speed_day_hour!F9="","",_speed_day_hour!F9)</f>
         <v/>
       </c>
@@ -3345,7 +3207,7 @@
         <f>IF(_speed_day_hour!G9="","",_speed_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="J13" s="31" t="str">
+      <c r="J13" s="35" t="str">
         <f>IF(_speed_day_hour!H9="","",_speed_day_hour!H9)</f>
         <v/>
       </c>
@@ -3357,47 +3219,47 @@
         <f>IF(_speed_day_hour!J9="","",_speed_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="M13" s="31" t="str">
+      <c r="M13" s="35" t="str">
         <f>IF(_speed_day_hour!K9="","",_speed_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="N13" s="31" t="str">
+      <c r="N13" s="35" t="str">
         <f>IF(_speed_day_hour!L9="","",_speed_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="O13" s="31" t="str">
+      <c r="O13" s="35" t="str">
         <f>IF(_speed_day_hour!M9="","",_speed_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="P13" s="31" t="str">
+      <c r="P13" s="35" t="str">
         <f>IF(_speed_day_hour!N9="","",_speed_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="Q13" s="31" t="str">
+      <c r="Q13" s="21" t="str">
         <f>IF(_speed_day_hour!O9="","",_speed_day_hour!O9)</f>
         <v/>
       </c>
-      <c r="R13" s="48" t="str">
+      <c r="R13" s="51" t="str">
         <f>IF(_speed_day_hour!P9="","",_speed_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S13" s="46" t="str">
+      <c r="S13" s="48" t="str">
         <f>IF(_speed_day_hour!Q9="","",_speed_day_hour!Q9)</f>
         <v/>
       </c>
-      <c r="T13" s="46" t="str">
+      <c r="T13" s="49" t="str">
         <f>IF(_speed_day_hour!R9="","",_speed_day_hour!R9)</f>
         <v/>
       </c>
-      <c r="U13" s="46" t="str">
+      <c r="U13" s="48" t="str">
         <f>IF(_speed_day_hour!S9="","",_speed_day_hour!S9)</f>
         <v/>
       </c>
-      <c r="V13" s="46" t="str">
+      <c r="V13" s="48" t="str">
         <f>IF(_speed_day_hour!T9="","",_speed_day_hour!T9)</f>
         <v/>
       </c>
-      <c r="W13" s="47" t="str">
+      <c r="W13" s="50" t="str">
         <f>IF(_speed_day_hour!U9="","",_speed_day_hour!U9)</f>
         <v/>
       </c>
@@ -3426,7 +3288,7 @@
         <f>IF(_speed_day_hour!E10="","",_speed_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="H14" s="21" t="str">
+      <c r="H14" s="22" t="str">
         <f>IF(_speed_day_hour!F10="","",_speed_day_hour!F10)</f>
         <v/>
       </c>
@@ -3434,7 +3296,7 @@
         <f>IF(_speed_day_hour!G10="","",_speed_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="J14" s="31" t="str">
+      <c r="J14" s="35" t="str">
         <f>IF(_speed_day_hour!H10="","",_speed_day_hour!H10)</f>
         <v/>
       </c>
@@ -3446,47 +3308,47 @@
         <f>IF(_speed_day_hour!J10="","",_speed_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="M14" s="31" t="str">
+      <c r="M14" s="35" t="str">
         <f>IF(_speed_day_hour!K10="","",_speed_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="N14" s="31" t="str">
+      <c r="N14" s="35" t="str">
         <f>IF(_speed_day_hour!L10="","",_speed_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="O14" s="31" t="str">
+      <c r="O14" s="35" t="str">
         <f>IF(_speed_day_hour!M10="","",_speed_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="P14" s="31" t="str">
+      <c r="P14" s="35" t="str">
         <f>IF(_speed_day_hour!N10="","",_speed_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="Q14" s="31" t="str">
+      <c r="Q14" s="21" t="str">
         <f>IF(_speed_day_hour!O10="","",_speed_day_hour!O10)</f>
         <v/>
       </c>
-      <c r="R14" s="48" t="str">
+      <c r="R14" s="51" t="str">
         <f>IF(_speed_day_hour!P10="","",_speed_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S14" s="46" t="str">
+      <c r="S14" s="48" t="str">
         <f>IF(_speed_day_hour!Q10="","",_speed_day_hour!Q10)</f>
         <v/>
       </c>
-      <c r="T14" s="46" t="str">
+      <c r="T14" s="49" t="str">
         <f>IF(_speed_day_hour!R10="","",_speed_day_hour!R10)</f>
         <v/>
       </c>
-      <c r="U14" s="46" t="str">
+      <c r="U14" s="48" t="str">
         <f>IF(_speed_day_hour!S10="","",_speed_day_hour!S10)</f>
         <v/>
       </c>
-      <c r="V14" s="46" t="str">
+      <c r="V14" s="48" t="str">
         <f>IF(_speed_day_hour!T10="","",_speed_day_hour!T10)</f>
         <v/>
       </c>
-      <c r="W14" s="47" t="str">
+      <c r="W14" s="50" t="str">
         <f>IF(_speed_day_hour!U10="","",_speed_day_hour!U10)</f>
         <v/>
       </c>
@@ -3515,7 +3377,7 @@
         <f>IF(_speed_day_hour!E11="","",_speed_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="H15" s="21" t="str">
+      <c r="H15" s="22" t="str">
         <f>IF(_speed_day_hour!F11="","",_speed_day_hour!F11)</f>
         <v/>
       </c>
@@ -3523,7 +3385,7 @@
         <f>IF(_speed_day_hour!G11="","",_speed_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="J15" s="31" t="str">
+      <c r="J15" s="35" t="str">
         <f>IF(_speed_day_hour!H11="","",_speed_day_hour!H11)</f>
         <v/>
       </c>
@@ -3535,47 +3397,47 @@
         <f>IF(_speed_day_hour!J11="","",_speed_day_hour!J11)</f>
         <v/>
       </c>
-      <c r="M15" s="31" t="str">
+      <c r="M15" s="35" t="str">
         <f>IF(_speed_day_hour!K11="","",_speed_day_hour!K11)</f>
         <v/>
       </c>
-      <c r="N15" s="31" t="str">
+      <c r="N15" s="35" t="str">
         <f>IF(_speed_day_hour!L11="","",_speed_day_hour!L11)</f>
         <v/>
       </c>
-      <c r="O15" s="31" t="str">
+      <c r="O15" s="35" t="str">
         <f>IF(_speed_day_hour!M11="","",_speed_day_hour!M11)</f>
         <v/>
       </c>
-      <c r="P15" s="31" t="str">
+      <c r="P15" s="35" t="str">
         <f>IF(_speed_day_hour!N11="","",_speed_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="Q15" s="31" t="str">
+      <c r="Q15" s="21" t="str">
         <f>IF(_speed_day_hour!O11="","",_speed_day_hour!O11)</f>
         <v/>
       </c>
-      <c r="R15" s="48" t="str">
+      <c r="R15" s="51" t="str">
         <f>IF(_speed_day_hour!P11="","",_speed_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S15" s="46" t="str">
+      <c r="S15" s="48" t="str">
         <f>IF(_speed_day_hour!Q11="","",_speed_day_hour!Q11)</f>
         <v/>
       </c>
-      <c r="T15" s="46" t="str">
+      <c r="T15" s="49" t="str">
         <f>IF(_speed_day_hour!R11="","",_speed_day_hour!R11)</f>
         <v/>
       </c>
-      <c r="U15" s="46" t="str">
+      <c r="U15" s="48" t="str">
         <f>IF(_speed_day_hour!S11="","",_speed_day_hour!S11)</f>
         <v/>
       </c>
-      <c r="V15" s="46" t="str">
+      <c r="V15" s="48" t="str">
         <f>IF(_speed_day_hour!T11="","",_speed_day_hour!T11)</f>
         <v/>
       </c>
-      <c r="W15" s="47" t="str">
+      <c r="W15" s="50" t="str">
         <f>IF(_speed_day_hour!U11="","",_speed_day_hour!U11)</f>
         <v/>
       </c>
@@ -3604,7 +3466,7 @@
         <f>IF(_speed_day_hour!E12="","",_speed_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="H16" s="21" t="str">
+      <c r="H16" s="22" t="str">
         <f>IF(_speed_day_hour!F12="","",_speed_day_hour!F12)</f>
         <v/>
       </c>
@@ -3612,7 +3474,7 @@
         <f>IF(_speed_day_hour!G12="","",_speed_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="J16" s="31" t="str">
+      <c r="J16" s="35" t="str">
         <f>IF(_speed_day_hour!H12="","",_speed_day_hour!H12)</f>
         <v/>
       </c>
@@ -3624,47 +3486,47 @@
         <f>IF(_speed_day_hour!J12="","",_speed_day_hour!J12)</f>
         <v/>
       </c>
-      <c r="M16" s="31" t="str">
+      <c r="M16" s="35" t="str">
         <f>IF(_speed_day_hour!K12="","",_speed_day_hour!K12)</f>
         <v/>
       </c>
-      <c r="N16" s="31" t="str">
+      <c r="N16" s="35" t="str">
         <f>IF(_speed_day_hour!L12="","",_speed_day_hour!L12)</f>
         <v/>
       </c>
-      <c r="O16" s="31" t="str">
+      <c r="O16" s="35" t="str">
         <f>IF(_speed_day_hour!M12="","",_speed_day_hour!M12)</f>
         <v/>
       </c>
-      <c r="P16" s="31" t="str">
+      <c r="P16" s="35" t="str">
         <f>IF(_speed_day_hour!N12="","",_speed_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="Q16" s="31" t="str">
+      <c r="Q16" s="21" t="str">
         <f>IF(_speed_day_hour!O12="","",_speed_day_hour!O12)</f>
         <v/>
       </c>
-      <c r="R16" s="48" t="str">
+      <c r="R16" s="51" t="str">
         <f>IF(_speed_day_hour!P12="","",_speed_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S16" s="46" t="str">
+      <c r="S16" s="48" t="str">
         <f>IF(_speed_day_hour!Q12="","",_speed_day_hour!Q12)</f>
         <v/>
       </c>
-      <c r="T16" s="46" t="str">
+      <c r="T16" s="49" t="str">
         <f>IF(_speed_day_hour!R12="","",_speed_day_hour!R12)</f>
         <v/>
       </c>
-      <c r="U16" s="46" t="str">
+      <c r="U16" s="48" t="str">
         <f>IF(_speed_day_hour!S12="","",_speed_day_hour!S12)</f>
         <v/>
       </c>
-      <c r="V16" s="46" t="str">
+      <c r="V16" s="48" t="str">
         <f>IF(_speed_day_hour!T12="","",_speed_day_hour!T12)</f>
         <v/>
       </c>
-      <c r="W16" s="47" t="str">
+      <c r="W16" s="50" t="str">
         <f>IF(_speed_day_hour!U12="","",_speed_day_hour!U12)</f>
         <v/>
       </c>
@@ -3693,7 +3555,7 @@
         <f>IF(_speed_day_hour!E13="","",_speed_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="H17" s="21" t="str">
+      <c r="H17" s="22" t="str">
         <f>IF(_speed_day_hour!F13="","",_speed_day_hour!F13)</f>
         <v/>
       </c>
@@ -3701,7 +3563,7 @@
         <f>IF(_speed_day_hour!G13="","",_speed_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="J17" s="31" t="str">
+      <c r="J17" s="35" t="str">
         <f>IF(_speed_day_hour!H13="","",_speed_day_hour!H13)</f>
         <v/>
       </c>
@@ -3713,47 +3575,47 @@
         <f>IF(_speed_day_hour!J13="","",_speed_day_hour!J13)</f>
         <v/>
       </c>
-      <c r="M17" s="31" t="str">
+      <c r="M17" s="35" t="str">
         <f>IF(_speed_day_hour!K13="","",_speed_day_hour!K13)</f>
         <v/>
       </c>
-      <c r="N17" s="31" t="str">
+      <c r="N17" s="35" t="str">
         <f>IF(_speed_day_hour!L13="","",_speed_day_hour!L13)</f>
         <v/>
       </c>
-      <c r="O17" s="31" t="str">
+      <c r="O17" s="35" t="str">
         <f>IF(_speed_day_hour!M13="","",_speed_day_hour!M13)</f>
         <v/>
       </c>
-      <c r="P17" s="31" t="str">
+      <c r="P17" s="35" t="str">
         <f>IF(_speed_day_hour!N13="","",_speed_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="Q17" s="31" t="str">
+      <c r="Q17" s="21" t="str">
         <f>IF(_speed_day_hour!O13="","",_speed_day_hour!O13)</f>
         <v/>
       </c>
-      <c r="R17" s="48" t="str">
+      <c r="R17" s="51" t="str">
         <f>IF(_speed_day_hour!P13="","",_speed_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S17" s="46" t="str">
+      <c r="S17" s="48" t="str">
         <f>IF(_speed_day_hour!Q13="","",_speed_day_hour!Q13)</f>
         <v/>
       </c>
-      <c r="T17" s="46" t="str">
+      <c r="T17" s="49" t="str">
         <f>IF(_speed_day_hour!R13="","",_speed_day_hour!R13)</f>
         <v/>
       </c>
-      <c r="U17" s="46" t="str">
+      <c r="U17" s="48" t="str">
         <f>IF(_speed_day_hour!S13="","",_speed_day_hour!S13)</f>
         <v/>
       </c>
-      <c r="V17" s="46" t="str">
+      <c r="V17" s="48" t="str">
         <f>IF(_speed_day_hour!T13="","",_speed_day_hour!T13)</f>
         <v/>
       </c>
-      <c r="W17" s="47" t="str">
+      <c r="W17" s="50" t="str">
         <f>IF(_speed_day_hour!U13="","",_speed_day_hour!U13)</f>
         <v/>
       </c>
@@ -3762,87 +3624,87 @@
       <c r="B18" s="20">
         <v>0.5</v>
       </c>
-      <c r="C18" s="22" t="str">
+      <c r="C18" s="23" t="str">
         <f>IF(_speed_day_hour!A14="","",_speed_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D18" s="22" t="str">
+      <c r="D18" s="23" t="str">
         <f>IF(_speed_day_hour!B14="","",_speed_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E18" s="22" t="str">
+      <c r="E18" s="23" t="str">
         <f>IF(_speed_day_hour!C14="","",_speed_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F18" s="22" t="str">
+      <c r="F18" s="23" t="str">
         <f>IF(_speed_day_hour!D14="","",_speed_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G18" s="22" t="str">
+      <c r="G18" s="23" t="str">
         <f>IF(_speed_day_hour!E14="","",_speed_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H18" s="22" t="str">
+      <c r="H18" s="24" t="str">
         <f>IF(_speed_day_hour!F14="","",_speed_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I18" s="22" t="str">
+      <c r="I18" s="23" t="str">
         <f>IF(_speed_day_hour!G14="","",_speed_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J18" s="32" t="str">
+      <c r="J18" s="36" t="str">
         <f>IF(_speed_day_hour!H14="","",_speed_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K18" s="22" t="str">
+      <c r="K18" s="23" t="str">
         <f>IF(_speed_day_hour!I14="","",_speed_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L18" s="22" t="str">
+      <c r="L18" s="23" t="str">
         <f>IF(_speed_day_hour!J14="","",_speed_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M18" s="32" t="str">
+      <c r="M18" s="36" t="str">
         <f>IF(_speed_day_hour!K14="","",_speed_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N18" s="32" t="str">
+      <c r="N18" s="36" t="str">
         <f>IF(_speed_day_hour!L14="","",_speed_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O18" s="32" t="str">
+      <c r="O18" s="36" t="str">
         <f>IF(_speed_day_hour!M14="","",_speed_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P18" s="33" t="str">
+      <c r="P18" s="37" t="str">
         <f>IF(_speed_day_hour!N14="","",_speed_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q18" s="33" t="str">
+      <c r="Q18" s="52" t="str">
         <f>IF(_speed_day_hour!O14="","",_speed_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R18" s="45" t="str">
+      <c r="R18" s="47" t="str">
         <f>IF(_speed_day_hour!P14="","",_speed_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S18" s="49" t="str">
+      <c r="S18" s="53" t="str">
         <f>IF(_speed_day_hour!Q14="","",_speed_day_hour!Q14)</f>
         <v/>
       </c>
-      <c r="T18" s="46" t="str">
+      <c r="T18" s="49" t="str">
         <f>IF(_speed_day_hour!R14="","",_speed_day_hour!R14)</f>
         <v/>
       </c>
-      <c r="U18" s="46" t="str">
+      <c r="U18" s="48" t="str">
         <f>IF(_speed_day_hour!S14="","",_speed_day_hour!S14)</f>
         <v/>
       </c>
-      <c r="V18" s="46" t="str">
+      <c r="V18" s="48" t="str">
         <f>IF(_speed_day_hour!T14="","",_speed_day_hour!T14)</f>
         <v/>
       </c>
-      <c r="W18" s="47" t="str">
+      <c r="W18" s="50" t="str">
         <f>IF(_speed_day_hour!U14="","",_speed_day_hour!U14)</f>
         <v/>
       </c>
@@ -3851,87 +3713,87 @@
       <c r="B19" s="20">
         <v>0.541666666666667</v>
       </c>
-      <c r="C19" s="22" t="str">
+      <c r="C19" s="23" t="str">
         <f>IF(_speed_day_hour!A15="","",_speed_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D19" s="22" t="str">
+      <c r="D19" s="23" t="str">
         <f>IF(_speed_day_hour!B15="","",_speed_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E19" s="22" t="str">
+      <c r="E19" s="23" t="str">
         <f>IF(_speed_day_hour!C15="","",_speed_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F19" s="22" t="str">
+      <c r="F19" s="23" t="str">
         <f>IF(_speed_day_hour!D15="","",_speed_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G19" s="22" t="str">
+      <c r="G19" s="23" t="str">
         <f>IF(_speed_day_hour!E15="","",_speed_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H19" s="22" t="str">
+      <c r="H19" s="24" t="str">
         <f>IF(_speed_day_hour!F15="","",_speed_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I19" s="22" t="str">
+      <c r="I19" s="23" t="str">
         <f>IF(_speed_day_hour!G15="","",_speed_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J19" s="32" t="str">
+      <c r="J19" s="36" t="str">
         <f>IF(_speed_day_hour!H15="","",_speed_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K19" s="22" t="str">
+      <c r="K19" s="23" t="str">
         <f>IF(_speed_day_hour!I15="","",_speed_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L19" s="22" t="str">
+      <c r="L19" s="23" t="str">
         <f>IF(_speed_day_hour!J15="","",_speed_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M19" s="32" t="str">
+      <c r="M19" s="36" t="str">
         <f>IF(_speed_day_hour!K15="","",_speed_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N19" s="32" t="str">
+      <c r="N19" s="36" t="str">
         <f>IF(_speed_day_hour!L15="","",_speed_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O19" s="32" t="str">
+      <c r="O19" s="36" t="str">
         <f>IF(_speed_day_hour!M15="","",_speed_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P19" s="33" t="str">
+      <c r="P19" s="37" t="str">
         <f>IF(_speed_day_hour!N15="","",_speed_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q19" s="33" t="str">
+      <c r="Q19" s="52" t="str">
         <f>IF(_speed_day_hour!O15="","",_speed_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R19" s="45" t="str">
+      <c r="R19" s="47" t="str">
         <f>IF(_speed_day_hour!P15="","",_speed_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S19" s="49" t="str">
+      <c r="S19" s="53" t="str">
         <f>IF(_speed_day_hour!Q15="","",_speed_day_hour!Q15)</f>
         <v/>
       </c>
-      <c r="T19" s="46" t="str">
+      <c r="T19" s="49" t="str">
         <f>IF(_speed_day_hour!R15="","",_speed_day_hour!R15)</f>
         <v/>
       </c>
-      <c r="U19" s="46" t="str">
+      <c r="U19" s="48" t="str">
         <f>IF(_speed_day_hour!S15="","",_speed_day_hour!S15)</f>
         <v/>
       </c>
-      <c r="V19" s="46" t="str">
+      <c r="V19" s="48" t="str">
         <f>IF(_speed_day_hour!T15="","",_speed_day_hour!T15)</f>
         <v/>
       </c>
-      <c r="W19" s="47" t="str">
+      <c r="W19" s="50" t="str">
         <f>IF(_speed_day_hour!U15="","",_speed_day_hour!U15)</f>
         <v/>
       </c>
@@ -3940,87 +3802,87 @@
       <c r="B20" s="20">
         <v>0.583333333333333</v>
       </c>
-      <c r="C20" s="22" t="str">
+      <c r="C20" s="23" t="str">
         <f>IF(_speed_day_hour!A16="","",_speed_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D20" s="22" t="str">
+      <c r="D20" s="23" t="str">
         <f>IF(_speed_day_hour!B16="","",_speed_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E20" s="22" t="str">
+      <c r="E20" s="23" t="str">
         <f>IF(_speed_day_hour!C16="","",_speed_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F20" s="22" t="str">
+      <c r="F20" s="23" t="str">
         <f>IF(_speed_day_hour!D16="","",_speed_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G20" s="22" t="str">
+      <c r="G20" s="23" t="str">
         <f>IF(_speed_day_hour!E16="","",_speed_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H20" s="22" t="str">
+      <c r="H20" s="24" t="str">
         <f>IF(_speed_day_hour!F16="","",_speed_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I20" s="22" t="str">
+      <c r="I20" s="23" t="str">
         <f>IF(_speed_day_hour!G16="","",_speed_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J20" s="32" t="str">
+      <c r="J20" s="36" t="str">
         <f>IF(_speed_day_hour!H16="","",_speed_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K20" s="22" t="str">
+      <c r="K20" s="23" t="str">
         <f>IF(_speed_day_hour!I16="","",_speed_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L20" s="22" t="str">
+      <c r="L20" s="23" t="str">
         <f>IF(_speed_day_hour!J16="","",_speed_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M20" s="32" t="str">
+      <c r="M20" s="36" t="str">
         <f>IF(_speed_day_hour!K16="","",_speed_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N20" s="32" t="str">
+      <c r="N20" s="36" t="str">
         <f>IF(_speed_day_hour!L16="","",_speed_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O20" s="32" t="str">
+      <c r="O20" s="36" t="str">
         <f>IF(_speed_day_hour!M16="","",_speed_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P20" s="33" t="str">
+      <c r="P20" s="37" t="str">
         <f>IF(_speed_day_hour!N16="","",_speed_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q20" s="33" t="str">
+      <c r="Q20" s="52" t="str">
         <f>IF(_speed_day_hour!O16="","",_speed_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R20" s="45" t="str">
+      <c r="R20" s="47" t="str">
         <f>IF(_speed_day_hour!P16="","",_speed_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S20" s="49" t="str">
+      <c r="S20" s="53" t="str">
         <f>IF(_speed_day_hour!Q16="","",_speed_day_hour!Q16)</f>
         <v/>
       </c>
-      <c r="T20" s="46" t="str">
+      <c r="T20" s="49" t="str">
         <f>IF(_speed_day_hour!R16="","",_speed_day_hour!R16)</f>
         <v/>
       </c>
-      <c r="U20" s="46" t="str">
+      <c r="U20" s="48" t="str">
         <f>IF(_speed_day_hour!S16="","",_speed_day_hour!S16)</f>
         <v/>
       </c>
-      <c r="V20" s="46" t="str">
+      <c r="V20" s="48" t="str">
         <f>IF(_speed_day_hour!T16="","",_speed_day_hour!T16)</f>
         <v/>
       </c>
-      <c r="W20" s="47" t="str">
+      <c r="W20" s="50" t="str">
         <f>IF(_speed_day_hour!U16="","",_speed_day_hour!U16)</f>
         <v/>
       </c>
@@ -4029,87 +3891,87 @@
       <c r="B21" s="20">
         <v>0.625</v>
       </c>
-      <c r="C21" s="22" t="str">
+      <c r="C21" s="23" t="str">
         <f>IF(_speed_day_hour!A17="","",_speed_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D21" s="22" t="str">
+      <c r="D21" s="23" t="str">
         <f>IF(_speed_day_hour!B17="","",_speed_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E21" s="22" t="str">
+      <c r="E21" s="23" t="str">
         <f>IF(_speed_day_hour!C17="","",_speed_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F21" s="22" t="str">
+      <c r="F21" s="23" t="str">
         <f>IF(_speed_day_hour!D17="","",_speed_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G21" s="22" t="str">
+      <c r="G21" s="23" t="str">
         <f>IF(_speed_day_hour!E17="","",_speed_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H21" s="22" t="str">
+      <c r="H21" s="24" t="str">
         <f>IF(_speed_day_hour!F17="","",_speed_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I21" s="22" t="str">
+      <c r="I21" s="23" t="str">
         <f>IF(_speed_day_hour!G17="","",_speed_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J21" s="32" t="str">
+      <c r="J21" s="36" t="str">
         <f>IF(_speed_day_hour!H17="","",_speed_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K21" s="22" t="str">
+      <c r="K21" s="23" t="str">
         <f>IF(_speed_day_hour!I17="","",_speed_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L21" s="22" t="str">
+      <c r="L21" s="23" t="str">
         <f>IF(_speed_day_hour!J17="","",_speed_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M21" s="32" t="str">
+      <c r="M21" s="36" t="str">
         <f>IF(_speed_day_hour!K17="","",_speed_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N21" s="32" t="str">
+      <c r="N21" s="36" t="str">
         <f>IF(_speed_day_hour!L17="","",_speed_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O21" s="32" t="str">
+      <c r="O21" s="36" t="str">
         <f>IF(_speed_day_hour!M17="","",_speed_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P21" s="33" t="str">
+      <c r="P21" s="37" t="str">
         <f>IF(_speed_day_hour!N17="","",_speed_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q21" s="33" t="str">
+      <c r="Q21" s="52" t="str">
         <f>IF(_speed_day_hour!O17="","",_speed_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R21" s="45" t="str">
+      <c r="R21" s="47" t="str">
         <f>IF(_speed_day_hour!P17="","",_speed_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S21" s="49" t="str">
+      <c r="S21" s="53" t="str">
         <f>IF(_speed_day_hour!Q17="","",_speed_day_hour!Q17)</f>
         <v/>
       </c>
-      <c r="T21" s="46" t="str">
+      <c r="T21" s="49" t="str">
         <f>IF(_speed_day_hour!R17="","",_speed_day_hour!R17)</f>
         <v/>
       </c>
-      <c r="U21" s="46" t="str">
+      <c r="U21" s="48" t="str">
         <f>IF(_speed_day_hour!S17="","",_speed_day_hour!S17)</f>
         <v/>
       </c>
-      <c r="V21" s="46" t="str">
+      <c r="V21" s="48" t="str">
         <f>IF(_speed_day_hour!T17="","",_speed_day_hour!T17)</f>
         <v/>
       </c>
-      <c r="W21" s="47" t="str">
+      <c r="W21" s="50" t="str">
         <f>IF(_speed_day_hour!U17="","",_speed_day_hour!U17)</f>
         <v/>
       </c>
@@ -4118,87 +3980,87 @@
       <c r="B22" s="20">
         <v>0.666666666666667</v>
       </c>
-      <c r="C22" s="22" t="str">
+      <c r="C22" s="23" t="str">
         <f>IF(_speed_day_hour!A18="","",_speed_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D22" s="22" t="str">
+      <c r="D22" s="23" t="str">
         <f>IF(_speed_day_hour!B18="","",_speed_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E22" s="22" t="str">
+      <c r="E22" s="23" t="str">
         <f>IF(_speed_day_hour!C18="","",_speed_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F22" s="22" t="str">
+      <c r="F22" s="23" t="str">
         <f>IF(_speed_day_hour!D18="","",_speed_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G22" s="22" t="str">
+      <c r="G22" s="23" t="str">
         <f>IF(_speed_day_hour!E18="","",_speed_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H22" s="22" t="str">
+      <c r="H22" s="24" t="str">
         <f>IF(_speed_day_hour!F18="","",_speed_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I22" s="22" t="str">
+      <c r="I22" s="23" t="str">
         <f>IF(_speed_day_hour!G18="","",_speed_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J22" s="32" t="str">
+      <c r="J22" s="36" t="str">
         <f>IF(_speed_day_hour!H18="","",_speed_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K22" s="22" t="str">
+      <c r="K22" s="23" t="str">
         <f>IF(_speed_day_hour!I18="","",_speed_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L22" s="22" t="str">
+      <c r="L22" s="23" t="str">
         <f>IF(_speed_day_hour!J18="","",_speed_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M22" s="32" t="str">
+      <c r="M22" s="36" t="str">
         <f>IF(_speed_day_hour!K18="","",_speed_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N22" s="32" t="str">
+      <c r="N22" s="36" t="str">
         <f>IF(_speed_day_hour!L18="","",_speed_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O22" s="32" t="str">
+      <c r="O22" s="36" t="str">
         <f>IF(_speed_day_hour!M18="","",_speed_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P22" s="33" t="str">
+      <c r="P22" s="37" t="str">
         <f>IF(_speed_day_hour!N18="","",_speed_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q22" s="33" t="str">
+      <c r="Q22" s="52" t="str">
         <f>IF(_speed_day_hour!O18="","",_speed_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R22" s="45" t="str">
+      <c r="R22" s="47" t="str">
         <f>IF(_speed_day_hour!P18="","",_speed_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S22" s="49" t="str">
+      <c r="S22" s="53" t="str">
         <f>IF(_speed_day_hour!Q18="","",_speed_day_hour!Q18)</f>
         <v/>
       </c>
-      <c r="T22" s="46" t="str">
+      <c r="T22" s="49" t="str">
         <f>IF(_speed_day_hour!R18="","",_speed_day_hour!R18)</f>
         <v/>
       </c>
-      <c r="U22" s="46" t="str">
+      <c r="U22" s="48" t="str">
         <f>IF(_speed_day_hour!S18="","",_speed_day_hour!S18)</f>
         <v/>
       </c>
-      <c r="V22" s="46" t="str">
+      <c r="V22" s="48" t="str">
         <f>IF(_speed_day_hour!T18="","",_speed_day_hour!T18)</f>
         <v/>
       </c>
-      <c r="W22" s="47" t="str">
+      <c r="W22" s="50" t="str">
         <f>IF(_speed_day_hour!U18="","",_speed_day_hour!U18)</f>
         <v/>
       </c>
@@ -4207,87 +4069,87 @@
       <c r="B23" s="20">
         <v>0.708333333333333</v>
       </c>
-      <c r="C23" s="22" t="str">
+      <c r="C23" s="23" t="str">
         <f>IF(_speed_day_hour!A19="","",_speed_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D23" s="22" t="str">
+      <c r="D23" s="23" t="str">
         <f>IF(_speed_day_hour!B19="","",_speed_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E23" s="22" t="str">
+      <c r="E23" s="23" t="str">
         <f>IF(_speed_day_hour!C19="","",_speed_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F23" s="22" t="str">
+      <c r="F23" s="23" t="str">
         <f>IF(_speed_day_hour!D19="","",_speed_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G23" s="22" t="str">
+      <c r="G23" s="23" t="str">
         <f>IF(_speed_day_hour!E19="","",_speed_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H23" s="22" t="str">
+      <c r="H23" s="24" t="str">
         <f>IF(_speed_day_hour!F19="","",_speed_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I23" s="22" t="str">
+      <c r="I23" s="23" t="str">
         <f>IF(_speed_day_hour!G19="","",_speed_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J23" s="32" t="str">
+      <c r="J23" s="36" t="str">
         <f>IF(_speed_day_hour!H19="","",_speed_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K23" s="22" t="str">
+      <c r="K23" s="23" t="str">
         <f>IF(_speed_day_hour!I19="","",_speed_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L23" s="22" t="str">
+      <c r="L23" s="23" t="str">
         <f>IF(_speed_day_hour!J19="","",_speed_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M23" s="32" t="str">
+      <c r="M23" s="36" t="str">
         <f>IF(_speed_day_hour!K19="","",_speed_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N23" s="32" t="str">
+      <c r="N23" s="36" t="str">
         <f>IF(_speed_day_hour!L19="","",_speed_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O23" s="32" t="str">
+      <c r="O23" s="36" t="str">
         <f>IF(_speed_day_hour!M19="","",_speed_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P23" s="33" t="str">
+      <c r="P23" s="37" t="str">
         <f>IF(_speed_day_hour!N19="","",_speed_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q23" s="33" t="str">
+      <c r="Q23" s="52" t="str">
         <f>IF(_speed_day_hour!O19="","",_speed_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R23" s="45" t="str">
+      <c r="R23" s="47" t="str">
         <f>IF(_speed_day_hour!P19="","",_speed_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S23" s="49" t="str">
+      <c r="S23" s="53" t="str">
         <f>IF(_speed_day_hour!Q19="","",_speed_day_hour!Q19)</f>
         <v/>
       </c>
-      <c r="T23" s="46" t="str">
+      <c r="T23" s="49" t="str">
         <f>IF(_speed_day_hour!R19="","",_speed_day_hour!R19)</f>
         <v/>
       </c>
-      <c r="U23" s="46" t="str">
+      <c r="U23" s="48" t="str">
         <f>IF(_speed_day_hour!S19="","",_speed_day_hour!S19)</f>
         <v/>
       </c>
-      <c r="V23" s="46" t="str">
+      <c r="V23" s="48" t="str">
         <f>IF(_speed_day_hour!T19="","",_speed_day_hour!T19)</f>
         <v/>
       </c>
-      <c r="W23" s="47" t="str">
+      <c r="W23" s="50" t="str">
         <f>IF(_speed_day_hour!U19="","",_speed_day_hour!U19)</f>
         <v/>
       </c>
@@ -4296,87 +4158,87 @@
       <c r="B24" s="20">
         <v>0.75</v>
       </c>
-      <c r="C24" s="22" t="str">
+      <c r="C24" s="23" t="str">
         <f>IF(_speed_day_hour!A20="","",_speed_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D24" s="22" t="str">
+      <c r="D24" s="23" t="str">
         <f>IF(_speed_day_hour!B20="","",_speed_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E24" s="22" t="str">
+      <c r="E24" s="23" t="str">
         <f>IF(_speed_day_hour!C20="","",_speed_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F24" s="22" t="str">
+      <c r="F24" s="23" t="str">
         <f>IF(_speed_day_hour!D20="","",_speed_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G24" s="22" t="str">
+      <c r="G24" s="23" t="str">
         <f>IF(_speed_day_hour!E20="","",_speed_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H24" s="22" t="str">
+      <c r="H24" s="24" t="str">
         <f>IF(_speed_day_hour!F20="","",_speed_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I24" s="22" t="str">
+      <c r="I24" s="23" t="str">
         <f>IF(_speed_day_hour!G20="","",_speed_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J24" s="32" t="str">
+      <c r="J24" s="36" t="str">
         <f>IF(_speed_day_hour!H20="","",_speed_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K24" s="22" t="str">
+      <c r="K24" s="23" t="str">
         <f>IF(_speed_day_hour!I20="","",_speed_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L24" s="22" t="str">
+      <c r="L24" s="23" t="str">
         <f>IF(_speed_day_hour!J20="","",_speed_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="str">
+      <c r="M24" s="36" t="str">
         <f>IF(_speed_day_hour!K20="","",_speed_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N24" s="32" t="str">
+      <c r="N24" s="36" t="str">
         <f>IF(_speed_day_hour!L20="","",_speed_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O24" s="32" t="str">
+      <c r="O24" s="36" t="str">
         <f>IF(_speed_day_hour!M20="","",_speed_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P24" s="33" t="str">
+      <c r="P24" s="37" t="str">
         <f>IF(_speed_day_hour!N20="","",_speed_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q24" s="33" t="str">
+      <c r="Q24" s="52" t="str">
         <f>IF(_speed_day_hour!O20="","",_speed_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R24" s="45" t="str">
+      <c r="R24" s="47" t="str">
         <f>IF(_speed_day_hour!P20="","",_speed_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S24" s="49" t="str">
+      <c r="S24" s="53" t="str">
         <f>IF(_speed_day_hour!Q20="","",_speed_day_hour!Q20)</f>
         <v/>
       </c>
-      <c r="T24" s="46" t="str">
+      <c r="T24" s="49" t="str">
         <f>IF(_speed_day_hour!R20="","",_speed_day_hour!R20)</f>
         <v/>
       </c>
-      <c r="U24" s="46" t="str">
+      <c r="U24" s="48" t="str">
         <f>IF(_speed_day_hour!S20="","",_speed_day_hour!S20)</f>
         <v/>
       </c>
-      <c r="V24" s="46" t="str">
+      <c r="V24" s="48" t="str">
         <f>IF(_speed_day_hour!T20="","",_speed_day_hour!T20)</f>
         <v/>
       </c>
-      <c r="W24" s="47" t="str">
+      <c r="W24" s="50" t="str">
         <f>IF(_speed_day_hour!U20="","",_speed_day_hour!U20)</f>
         <v/>
       </c>
@@ -4385,87 +4247,87 @@
       <c r="B25" s="20">
         <v>0.791666666666667</v>
       </c>
-      <c r="C25" s="22" t="str">
+      <c r="C25" s="23" t="str">
         <f>IF(_speed_day_hour!A21="","",_speed_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D25" s="22" t="str">
+      <c r="D25" s="23" t="str">
         <f>IF(_speed_day_hour!B21="","",_speed_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E25" s="22" t="str">
+      <c r="E25" s="23" t="str">
         <f>IF(_speed_day_hour!C21="","",_speed_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F25" s="22" t="str">
+      <c r="F25" s="23" t="str">
         <f>IF(_speed_day_hour!D21="","",_speed_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G25" s="22" t="str">
+      <c r="G25" s="23" t="str">
         <f>IF(_speed_day_hour!E21="","",_speed_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H25" s="22" t="str">
+      <c r="H25" s="24" t="str">
         <f>IF(_speed_day_hour!F21="","",_speed_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I25" s="22" t="str">
+      <c r="I25" s="23" t="str">
         <f>IF(_speed_day_hour!G21="","",_speed_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J25" s="32" t="str">
+      <c r="J25" s="36" t="str">
         <f>IF(_speed_day_hour!H21="","",_speed_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K25" s="22" t="str">
+      <c r="K25" s="23" t="str">
         <f>IF(_speed_day_hour!I21="","",_speed_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L25" s="22" t="str">
+      <c r="L25" s="23" t="str">
         <f>IF(_speed_day_hour!J21="","",_speed_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M25" s="32" t="str">
+      <c r="M25" s="36" t="str">
         <f>IF(_speed_day_hour!K21="","",_speed_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N25" s="32" t="str">
+      <c r="N25" s="36" t="str">
         <f>IF(_speed_day_hour!L21="","",_speed_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O25" s="32" t="str">
+      <c r="O25" s="36" t="str">
         <f>IF(_speed_day_hour!M21="","",_speed_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P25" s="33" t="str">
+      <c r="P25" s="37" t="str">
         <f>IF(_speed_day_hour!N21="","",_speed_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q25" s="33" t="str">
+      <c r="Q25" s="52" t="str">
         <f>IF(_speed_day_hour!O21="","",_speed_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R25" s="45" t="str">
+      <c r="R25" s="47" t="str">
         <f>IF(_speed_day_hour!P21="","",_speed_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S25" s="49" t="str">
+      <c r="S25" s="53" t="str">
         <f>IF(_speed_day_hour!Q21="","",_speed_day_hour!Q21)</f>
         <v/>
       </c>
-      <c r="T25" s="46" t="str">
+      <c r="T25" s="49" t="str">
         <f>IF(_speed_day_hour!R21="","",_speed_day_hour!R21)</f>
         <v/>
       </c>
-      <c r="U25" s="46" t="str">
+      <c r="U25" s="48" t="str">
         <f>IF(_speed_day_hour!S21="","",_speed_day_hour!S21)</f>
         <v/>
       </c>
-      <c r="V25" s="46" t="str">
+      <c r="V25" s="48" t="str">
         <f>IF(_speed_day_hour!T21="","",_speed_day_hour!T21)</f>
         <v/>
       </c>
-      <c r="W25" s="47" t="str">
+      <c r="W25" s="50" t="str">
         <f>IF(_speed_day_hour!U21="","",_speed_day_hour!U21)</f>
         <v/>
       </c>
@@ -4474,87 +4336,87 @@
       <c r="B26" s="20">
         <v>0.833333333333333</v>
       </c>
-      <c r="C26" s="22" t="str">
+      <c r="C26" s="23" t="str">
         <f>IF(_speed_day_hour!A22="","",_speed_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D26" s="22" t="str">
+      <c r="D26" s="23" t="str">
         <f>IF(_speed_day_hour!B22="","",_speed_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E26" s="22" t="str">
+      <c r="E26" s="23" t="str">
         <f>IF(_speed_day_hour!C22="","",_speed_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F26" s="22" t="str">
+      <c r="F26" s="23" t="str">
         <f>IF(_speed_day_hour!D22="","",_speed_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G26" s="22" t="str">
+      <c r="G26" s="23" t="str">
         <f>IF(_speed_day_hour!E22="","",_speed_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H26" s="22" t="str">
+      <c r="H26" s="24" t="str">
         <f>IF(_speed_day_hour!F22="","",_speed_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I26" s="22" t="str">
+      <c r="I26" s="23" t="str">
         <f>IF(_speed_day_hour!G22="","",_speed_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J26" s="32" t="str">
+      <c r="J26" s="36" t="str">
         <f>IF(_speed_day_hour!H22="","",_speed_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K26" s="22" t="str">
+      <c r="K26" s="23" t="str">
         <f>IF(_speed_day_hour!I22="","",_speed_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L26" s="22" t="str">
+      <c r="L26" s="23" t="str">
         <f>IF(_speed_day_hour!J22="","",_speed_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M26" s="32" t="str">
+      <c r="M26" s="36" t="str">
         <f>IF(_speed_day_hour!K22="","",_speed_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N26" s="32" t="str">
+      <c r="N26" s="36" t="str">
         <f>IF(_speed_day_hour!L22="","",_speed_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O26" s="32" t="str">
+      <c r="O26" s="36" t="str">
         <f>IF(_speed_day_hour!M22="","",_speed_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P26" s="33" t="str">
+      <c r="P26" s="37" t="str">
         <f>IF(_speed_day_hour!N22="","",_speed_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q26" s="33" t="str">
+      <c r="Q26" s="52" t="str">
         <f>IF(_speed_day_hour!O22="","",_speed_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R26" s="45" t="str">
+      <c r="R26" s="47" t="str">
         <f>IF(_speed_day_hour!P22="","",_speed_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S26" s="49" t="str">
+      <c r="S26" s="53" t="str">
         <f>IF(_speed_day_hour!Q22="","",_speed_day_hour!Q22)</f>
         <v/>
       </c>
-      <c r="T26" s="46" t="str">
+      <c r="T26" s="49" t="str">
         <f>IF(_speed_day_hour!R22="","",_speed_day_hour!R22)</f>
         <v/>
       </c>
-      <c r="U26" s="46" t="str">
+      <c r="U26" s="48" t="str">
         <f>IF(_speed_day_hour!S22="","",_speed_day_hour!S22)</f>
         <v/>
       </c>
-      <c r="V26" s="46" t="str">
+      <c r="V26" s="48" t="str">
         <f>IF(_speed_day_hour!T22="","",_speed_day_hour!T22)</f>
         <v/>
       </c>
-      <c r="W26" s="47" t="str">
+      <c r="W26" s="50" t="str">
         <f>IF(_speed_day_hour!U22="","",_speed_day_hour!U22)</f>
         <v/>
       </c>
@@ -4563,87 +4425,87 @@
       <c r="B27" s="20">
         <v>0.875</v>
       </c>
-      <c r="C27" s="22" t="str">
+      <c r="C27" s="23" t="str">
         <f>IF(_speed_day_hour!A23="","",_speed_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D27" s="22" t="str">
+      <c r="D27" s="23" t="str">
         <f>IF(_speed_day_hour!B23="","",_speed_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E27" s="22" t="str">
+      <c r="E27" s="23" t="str">
         <f>IF(_speed_day_hour!C23="","",_speed_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F27" s="22" t="str">
+      <c r="F27" s="23" t="str">
         <f>IF(_speed_day_hour!D23="","",_speed_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G27" s="22" t="str">
+      <c r="G27" s="23" t="str">
         <f>IF(_speed_day_hour!E23="","",_speed_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H27" s="22" t="str">
+      <c r="H27" s="24" t="str">
         <f>IF(_speed_day_hour!F23="","",_speed_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I27" s="22" t="str">
+      <c r="I27" s="23" t="str">
         <f>IF(_speed_day_hour!G23="","",_speed_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J27" s="32" t="str">
+      <c r="J27" s="36" t="str">
         <f>IF(_speed_day_hour!H23="","",_speed_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K27" s="22" t="str">
+      <c r="K27" s="23" t="str">
         <f>IF(_speed_day_hour!I23="","",_speed_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L27" s="22" t="str">
+      <c r="L27" s="23" t="str">
         <f>IF(_speed_day_hour!J23="","",_speed_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M27" s="32" t="str">
+      <c r="M27" s="36" t="str">
         <f>IF(_speed_day_hour!K23="","",_speed_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N27" s="32" t="str">
+      <c r="N27" s="36" t="str">
         <f>IF(_speed_day_hour!L23="","",_speed_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O27" s="32" t="str">
+      <c r="O27" s="36" t="str">
         <f>IF(_speed_day_hour!M23="","",_speed_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P27" s="33" t="str">
+      <c r="P27" s="37" t="str">
         <f>IF(_speed_day_hour!N23="","",_speed_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q27" s="33" t="str">
+      <c r="Q27" s="52" t="str">
         <f>IF(_speed_day_hour!O23="","",_speed_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R27" s="45" t="str">
+      <c r="R27" s="47" t="str">
         <f>IF(_speed_day_hour!P23="","",_speed_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S27" s="49" t="str">
+      <c r="S27" s="53" t="str">
         <f>IF(_speed_day_hour!Q23="","",_speed_day_hour!Q23)</f>
         <v/>
       </c>
-      <c r="T27" s="46" t="str">
+      <c r="T27" s="49" t="str">
         <f>IF(_speed_day_hour!R23="","",_speed_day_hour!R23)</f>
         <v/>
       </c>
-      <c r="U27" s="46" t="str">
+      <c r="U27" s="48" t="str">
         <f>IF(_speed_day_hour!S23="","",_speed_day_hour!S23)</f>
         <v/>
       </c>
-      <c r="V27" s="46" t="str">
+      <c r="V27" s="48" t="str">
         <f>IF(_speed_day_hour!T23="","",_speed_day_hour!T23)</f>
         <v/>
       </c>
-      <c r="W27" s="47" t="str">
+      <c r="W27" s="50" t="str">
         <f>IF(_speed_day_hour!U23="","",_speed_day_hour!U23)</f>
         <v/>
       </c>
@@ -4652,87 +4514,87 @@
       <c r="B28" s="20">
         <v>0.916666666666667</v>
       </c>
-      <c r="C28" s="22" t="str">
+      <c r="C28" s="23" t="str">
         <f>IF(_speed_day_hour!A24="","",_speed_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D28" s="22" t="str">
+      <c r="D28" s="23" t="str">
         <f>IF(_speed_day_hour!B24="","",_speed_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E28" s="22" t="str">
+      <c r="E28" s="23" t="str">
         <f>IF(_speed_day_hour!C24="","",_speed_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F28" s="22" t="str">
+      <c r="F28" s="23" t="str">
         <f>IF(_speed_day_hour!D24="","",_speed_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G28" s="22" t="str">
+      <c r="G28" s="23" t="str">
         <f>IF(_speed_day_hour!E24="","",_speed_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H28" s="22" t="str">
+      <c r="H28" s="24" t="str">
         <f>IF(_speed_day_hour!F24="","",_speed_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I28" s="22" t="str">
+      <c r="I28" s="23" t="str">
         <f>IF(_speed_day_hour!G24="","",_speed_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J28" s="32" t="str">
+      <c r="J28" s="36" t="str">
         <f>IF(_speed_day_hour!H24="","",_speed_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K28" s="22" t="str">
+      <c r="K28" s="23" t="str">
         <f>IF(_speed_day_hour!I24="","",_speed_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L28" s="22" t="str">
+      <c r="L28" s="23" t="str">
         <f>IF(_speed_day_hour!J24="","",_speed_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M28" s="32" t="str">
+      <c r="M28" s="36" t="str">
         <f>IF(_speed_day_hour!K24="","",_speed_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N28" s="32" t="str">
+      <c r="N28" s="36" t="str">
         <f>IF(_speed_day_hour!L24="","",_speed_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O28" s="32" t="str">
+      <c r="O28" s="36" t="str">
         <f>IF(_speed_day_hour!M24="","",_speed_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P28" s="33" t="str">
+      <c r="P28" s="37" t="str">
         <f>IF(_speed_day_hour!N24="","",_speed_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q28" s="33" t="str">
+      <c r="Q28" s="52" t="str">
         <f>IF(_speed_day_hour!O24="","",_speed_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R28" s="45" t="str">
+      <c r="R28" s="47" t="str">
         <f>IF(_speed_day_hour!P24="","",_speed_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S28" s="49" t="str">
+      <c r="S28" s="53" t="str">
         <f>IF(_speed_day_hour!Q24="","",_speed_day_hour!Q24)</f>
         <v/>
       </c>
-      <c r="T28" s="46" t="str">
+      <c r="T28" s="49" t="str">
         <f>IF(_speed_day_hour!R24="","",_speed_day_hour!R24)</f>
         <v/>
       </c>
-      <c r="U28" s="46" t="str">
+      <c r="U28" s="48" t="str">
         <f>IF(_speed_day_hour!S24="","",_speed_day_hour!S24)</f>
         <v/>
       </c>
-      <c r="V28" s="46" t="str">
+      <c r="V28" s="48" t="str">
         <f>IF(_speed_day_hour!T24="","",_speed_day_hour!T24)</f>
         <v/>
       </c>
-      <c r="W28" s="47" t="str">
+      <c r="W28" s="50" t="str">
         <f>IF(_speed_day_hour!U24="","",_speed_day_hour!U24)</f>
         <v/>
       </c>
@@ -4741,506 +4603,506 @@
       <c r="B29" s="20">
         <v>0.958333333333333</v>
       </c>
-      <c r="C29" s="22" t="str">
+      <c r="C29" s="23" t="str">
         <f>IF(_speed_day_hour!A25="","",_speed_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D29" s="22" t="str">
+      <c r="D29" s="23" t="str">
         <f>IF(_speed_day_hour!B25="","",_speed_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E29" s="22" t="str">
+      <c r="E29" s="23" t="str">
         <f>IF(_speed_day_hour!C25="","",_speed_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F29" s="22" t="str">
+      <c r="F29" s="23" t="str">
         <f>IF(_speed_day_hour!D25="","",_speed_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G29" s="22" t="str">
+      <c r="G29" s="23" t="str">
         <f>IF(_speed_day_hour!E25="","",_speed_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H29" s="22" t="str">
+      <c r="H29" s="24" t="str">
         <f>IF(_speed_day_hour!F25="","",_speed_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I29" s="22" t="str">
+      <c r="I29" s="23" t="str">
         <f>IF(_speed_day_hour!G25="","",_speed_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J29" s="32" t="str">
+      <c r="J29" s="36" t="str">
         <f>IF(_speed_day_hour!H25="","",_speed_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K29" s="22" t="str">
+      <c r="K29" s="23" t="str">
         <f>IF(_speed_day_hour!I25="","",_speed_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L29" s="22" t="str">
+      <c r="L29" s="23" t="str">
         <f>IF(_speed_day_hour!J25="","",_speed_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M29" s="32" t="str">
+      <c r="M29" s="36" t="str">
         <f>IF(_speed_day_hour!K25="","",_speed_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N29" s="32" t="str">
+      <c r="N29" s="36" t="str">
         <f>IF(_speed_day_hour!L25="","",_speed_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O29" s="32" t="str">
+      <c r="O29" s="36" t="str">
         <f>IF(_speed_day_hour!M25="","",_speed_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P29" s="33" t="str">
+      <c r="P29" s="37" t="str">
         <f>IF(_speed_day_hour!N25="","",_speed_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q29" s="33" t="str">
+      <c r="Q29" s="52" t="str">
         <f>IF(_speed_day_hour!O25="","",_speed_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R29" s="45" t="str">
+      <c r="R29" s="47" t="str">
         <f>IF(_speed_day_hour!P25="","",_speed_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S29" s="49" t="str">
+      <c r="S29" s="53" t="str">
         <f>IF(_speed_day_hour!Q25="","",_speed_day_hour!Q25)</f>
         <v/>
       </c>
-      <c r="T29" s="46" t="str">
+      <c r="T29" s="49" t="str">
         <f>IF(_speed_day_hour!R25="","",_speed_day_hour!R25)</f>
         <v/>
       </c>
-      <c r="U29" s="46" t="str">
+      <c r="U29" s="48" t="str">
         <f>IF(_speed_day_hour!S25="","",_speed_day_hour!S25)</f>
         <v/>
       </c>
-      <c r="V29" s="46" t="str">
+      <c r="V29" s="48" t="str">
         <f>IF(_speed_day_hour!T25="","",_speed_day_hour!T25)</f>
         <v/>
       </c>
-      <c r="W29" s="47" t="str">
+      <c r="W29" s="50" t="str">
         <f>IF(_speed_day_hour!U25="","",_speed_day_hour!U25)</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="21" customHeight="1" spans="2:23">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="24" t="str">
+      <c r="C30" s="26" t="str">
         <f t="shared" ref="C30:W30" si="0">IFERROR(AVERAGE(C6:C13),"")</f>
         <v/>
       </c>
-      <c r="D30" s="24" t="str">
+      <c r="D30" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E30" s="24" t="str">
+      <c r="E30" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F30" s="24" t="str">
+      <c r="F30" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G30" s="24" t="str">
+      <c r="G30" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H30" s="24" t="str">
+      <c r="H30" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I30" s="24" t="str">
+      <c r="I30" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J30" s="34" t="str">
+      <c r="J30" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K30" s="24" t="str">
+      <c r="K30" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L30" s="22" t="str">
+      <c r="L30" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M30" s="32" t="str">
+      <c r="M30" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N30" s="32" t="str">
+      <c r="N30" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O30" s="32" t="str">
+      <c r="O30" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P30" s="33" t="str">
+      <c r="P30" s="37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q30" s="33" t="str">
+      <c r="Q30" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R30" s="33" t="str">
+      <c r="R30" s="37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S30" s="33" t="str">
+      <c r="S30" s="37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="T30" s="33" t="str">
+      <c r="T30" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U30" s="33" t="str">
+      <c r="U30" s="37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="V30" s="33" t="str">
+      <c r="V30" s="37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="W30" s="50" t="str">
+      <c r="W30" s="54" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="31" ht="21" customHeight="1" spans="2:23">
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="24" t="str">
+      <c r="C31" s="26" t="str">
         <f t="shared" ref="C31:P31" si="1">IFERROR(AVERAGE(C14:C21),"")</f>
         <v/>
       </c>
-      <c r="D31" s="24" t="str">
+      <c r="D31" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E31" s="24" t="str">
+      <c r="E31" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F31" s="24" t="str">
+      <c r="F31" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G31" s="24" t="str">
+      <c r="G31" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H31" s="24" t="str">
+      <c r="H31" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I31" s="24" t="str">
+      <c r="I31" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J31" s="34" t="str">
+      <c r="J31" s="38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K31" s="24" t="str">
+      <c r="K31" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L31" s="22" t="str">
+      <c r="L31" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M31" s="32" t="str">
+      <c r="M31" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N31" s="32" t="str">
+      <c r="N31" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O31" s="32" t="str">
+      <c r="O31" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P31" s="33" t="str">
+      <c r="P31" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q31" s="33" t="str">
+      <c r="Q31" s="52" t="str">
         <f t="shared" ref="Q31:W31" si="2">IFERROR(AVERAGE(Q7:Q14),"")</f>
         <v/>
       </c>
-      <c r="R31" s="33" t="str">
+      <c r="R31" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S31" s="33" t="str">
+      <c r="S31" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T31" s="33" t="str">
+      <c r="T31" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U31" s="33" t="str">
+      <c r="U31" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="V31" s="33" t="str">
+      <c r="V31" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W31" s="50" t="str">
+      <c r="W31" s="54" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="32" ht="21" customHeight="1" spans="2:23">
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="24" t="str">
+      <c r="C32" s="26" t="str">
         <f t="shared" ref="C32:P32" si="3">IFERROR(AVERAGE(C22:C29),"")</f>
         <v/>
       </c>
-      <c r="D32" s="24" t="str">
+      <c r="D32" s="26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E32" s="24" t="str">
+      <c r="E32" s="26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F32" s="24" t="str">
+      <c r="F32" s="26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G32" s="24" t="str">
+      <c r="G32" s="26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H32" s="24" t="str">
+      <c r="H32" s="27" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I32" s="24" t="str">
+      <c r="I32" s="26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J32" s="34" t="str">
+      <c r="J32" s="38" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K32" s="24" t="str">
+      <c r="K32" s="26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L32" s="22" t="str">
+      <c r="L32" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M32" s="32" t="str">
+      <c r="M32" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N32" s="32" t="str">
+      <c r="N32" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O32" s="32" t="str">
+      <c r="O32" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P32" s="33" t="str">
+      <c r="P32" s="37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q32" s="33" t="str">
+      <c r="Q32" s="52" t="str">
         <f t="shared" ref="Q32:W32" si="4">IFERROR(AVERAGE(Q8:Q15),"")</f>
         <v/>
       </c>
-      <c r="R32" s="33" t="str">
+      <c r="R32" s="37" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="S32" s="33" t="str">
+      <c r="S32" s="37" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="T32" s="33" t="str">
+      <c r="T32" s="52" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U32" s="33" t="str">
+      <c r="U32" s="37" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="V32" s="33" t="str">
+      <c r="V32" s="37" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W32" s="50" t="str">
+      <c r="W32" s="54" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="33" ht="21" customHeight="1" spans="2:23">
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="26" t="str">
+      <c r="C33" s="29" t="str">
         <f t="shared" ref="C33:P33" si="5">IFERROR(AVERAGE(C6:C29),"")</f>
         <v/>
       </c>
-      <c r="D33" s="26" t="str">
+      <c r="D33" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E33" s="26" t="str">
+      <c r="E33" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F33" s="26" t="str">
+      <c r="F33" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G33" s="26" t="str">
+      <c r="G33" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H33" s="26" t="str">
+      <c r="H33" s="30" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I33" s="26" t="str">
+      <c r="I33" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J33" s="35" t="str">
+      <c r="J33" s="39" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K33" s="26" t="str">
+      <c r="K33" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L33" s="26" t="str">
+      <c r="L33" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M33" s="35" t="str">
+      <c r="M33" s="39" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N33" s="35" t="str">
+      <c r="N33" s="39" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O33" s="35" t="str">
+      <c r="O33" s="39" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P33" s="36" t="str">
+      <c r="P33" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q33" s="36" t="str">
+      <c r="Q33" s="55" t="str">
         <f t="shared" ref="Q33:W33" si="6">IFERROR(AVERAGE(Q9:Q16),"")</f>
         <v/>
       </c>
-      <c r="R33" s="36" t="str">
+      <c r="R33" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="S33" s="36" t="str">
+      <c r="S33" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T33" s="36" t="str">
+      <c r="T33" s="55" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="U33" s="36" t="str">
+      <c r="U33" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="V33" s="36" t="str">
+      <c r="V33" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="W33" s="51" t="str">
+      <c r="W33" s="56" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="34" ht="94.95" customHeight="1" spans="2:23">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="37" t="s">
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="27" t="s">
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="52"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="33"/>
     </row>
     <row r="35" ht="20.55" customHeight="1" spans="2:23">
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="37" t="s">
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="37" t="s">
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="52"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -5278,10 +5140,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5346,467 +5208,11 @@
         <v>45</v>
       </c>
       <c r="T1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
@@ -5821,7 +5227,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -5855,6 +5261,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>